--- a/WI 24/SE 160A/MATLAB PROJECT 2/final/Wing_Analysis_Output.xlsx
+++ b/WI 24/SE 160A/MATLAB PROJECT 2/final/Wing_Analysis_Output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levih\OneDrive\Documents\GitHub\UCSD\WI 24\SE 160A\MATLAB PROJECT 2\final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F471E48-5BC1-4AD9-9B43-2346E71E1F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9B2F74-9701-4800-A7B3-0204A69CB4DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="15345" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2797,7 +2797,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64E47D67-BEA3-91AE-24BB-52C604C5BE02}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EA8256F-17DD-1A6E-F58B-B85E9E0B5389}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/WI 24/SE 160A/MATLAB PROJECT 2/final/Wing_Analysis_Output.xlsx
+++ b/WI 24/SE 160A/MATLAB PROJECT 2/final/Wing_Analysis_Output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levih\OneDrive\Documents\GitHub\UCSD\WI 24\SE 160A\MATLAB PROJECT 2\final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9B2F74-9701-4800-A7B3-0204A69CB4DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789E9E69-0B9B-4AF8-9E4F-E97C56FCA40A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="15345" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2797,7 +2797,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EA8256F-17DD-1A6E-F58B-B85E9E0B5389}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48C6480E-0826-66EF-68A1-996C58837C6E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/WI 24/SE 160A/MATLAB PROJECT 2/final/Wing_Analysis_Output.xlsx
+++ b/WI 24/SE 160A/MATLAB PROJECT 2/final/Wing_Analysis_Output.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levih\OneDrive\Documents\GitHub\UCSD\WI 24\SE 160A\MATLAB PROJECT 2\final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789E9E69-0B9B-4AF8-9E4F-E97C56FCA40A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF6E2C2A-839D-4F6E-974C-B83F4827EFA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="15345" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2797,7 +2797,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48C6480E-0826-66EF-68A1-996C58837C6E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E962776-77E9-BC76-FA20-545C6D393DA6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/WI 24/SE 160A/MATLAB PROJECT 2/final/Wing_Analysis_Output.xlsx
+++ b/WI 24/SE 160A/MATLAB PROJECT 2/final/Wing_Analysis_Output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levih\OneDrive\Documents\GitHub\UCSD\WI 24\SE 160A\MATLAB PROJECT 2\final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF6E2C2A-839D-4F6E-974C-B83F4827EFA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D43063BB-55A5-4871-BA85-7245C6816496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="15345" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3450" yWindow="3420" windowWidth="19140" windowHeight="10020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Output" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="221">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1488,6 +1488,12 @@
   </si>
   <si>
     <t>Triton fx1, PHAA (n=3.8), Al-6061-T6</t>
+  </si>
+  <si>
+    <t>Levi Stein</t>
+  </si>
+  <si>
+    <t>A16791467</t>
   </si>
 </sst>
 </file>
@@ -2797,7 +2803,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E962776-77E9-BC76-FA20-545C6D393DA6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24615EA8-5D94-4AD7-7D22-CD9F83DC89E5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2821,6 +2827,756 @@
         <a:xfrm>
           <a:off x="6335486" y="9432925"/>
           <a:ext cx="4590869" cy="3724275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>69215</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>74295</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DF0E1B8-5CFF-DFA8-C16F-E2290719E893}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="497840" y="18014950"/>
+          <a:ext cx="10368280" cy="4010025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>69215</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>74295</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8786E65-A8CB-84F9-E9EA-1765C30D3AFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="497840" y="22415500"/>
+          <a:ext cx="10368280" cy="4010025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>69215</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>74295</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB6230A5-9301-AA17-61EE-03B9D0BF604B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="497840" y="26816050"/>
+          <a:ext cx="10368280" cy="4010025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>69215</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>74295</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{114B0AEE-6D30-5A00-33C9-B6AB9E141A9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="497840" y="33340675"/>
+          <a:ext cx="10368280" cy="4010025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>69215</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>74295</xdr:colOff>
+      <xdr:row>214</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7853190-EB92-4543-D5AC-B6CA666D34B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="497840" y="37741225"/>
+          <a:ext cx="10368280" cy="4010025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>69215</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>74295</xdr:colOff>
+      <xdr:row>237</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61B3E80E-2385-D72C-865E-42B51488B336}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="497840" y="42141775"/>
+          <a:ext cx="10368280" cy="4010025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>69215</xdr:colOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>74295</xdr:colOff>
+      <xdr:row>260</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4DA9FFB-4C7A-FCCC-7884-443F98BE7E34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="497840" y="46542325"/>
+          <a:ext cx="10368280" cy="4010025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>69215</xdr:colOff>
+      <xdr:row>262</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>74295</xdr:colOff>
+      <xdr:row>283</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED802D1C-067C-845B-7002-3DB5DA1A237D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="497840" y="50942875"/>
+          <a:ext cx="10368280" cy="4010025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>69215</xdr:colOff>
+      <xdr:row>294</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>74295</xdr:colOff>
+      <xdr:row>315</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBB30C1A-9777-707A-4DA1-C064888D8602}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="497840" y="57181750"/>
+          <a:ext cx="10368280" cy="4010025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>69215</xdr:colOff>
+      <xdr:row>325</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>74295</xdr:colOff>
+      <xdr:row>346</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{005C1E8D-3C00-1B9C-623E-43DC8942FE11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="497840" y="63163450"/>
+          <a:ext cx="10368280" cy="4010025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>69215</xdr:colOff>
+      <xdr:row>358</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>74295</xdr:colOff>
+      <xdr:row>379</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{782FA5F7-06BF-8C64-9A65-8EC4AF960ACE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="497840" y="69688075"/>
+          <a:ext cx="10368280" cy="4010025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>69215</xdr:colOff>
+      <xdr:row>381</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>74295</xdr:colOff>
+      <xdr:row>402</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA78B9D1-A716-25A7-78F4-EC0D2DF30631}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="497840" y="74088625"/>
+          <a:ext cx="10368280" cy="4010025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>69215</xdr:colOff>
+      <xdr:row>404</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>74295</xdr:colOff>
+      <xdr:row>425</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2BB221C-8892-4AEF-0344-EDC369DF9BCB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="497840" y="78489175"/>
+          <a:ext cx="10368280" cy="4010025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>69215</xdr:colOff>
+      <xdr:row>427</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>74295</xdr:colOff>
+      <xdr:row>448</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC077CD4-33DC-0DCD-F695-A4D7B268C453}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="497840" y="82889725"/>
+          <a:ext cx="10368280" cy="4010025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>69215</xdr:colOff>
+      <xdr:row>450</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>74295</xdr:colOff>
+      <xdr:row>471</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{103028F3-22A2-1482-DBB2-97F7AAD60401}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="497840" y="87290275"/>
+          <a:ext cx="10368280" cy="4010025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3134,8 +3890,8 @@
   </sheetPr>
   <dimension ref="A1:P477"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58:G66"/>
+    <sheetView tabSelected="1" topLeftCell="A338" workbookViewId="0">
+      <selection activeCell="G355" sqref="G355"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3224,7 +3980,7 @@
         <v>8</v>
       </c>
       <c r="F9" s="70" t="s">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="P9" s="45"/>
     </row>
@@ -3234,7 +3990,7 @@
         <v>9</v>
       </c>
       <c r="F10" s="71" t="s">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="P10" s="45"/>
     </row>
@@ -4357,8 +5113,8 @@
       <c r="F73" s="147" t="s">
         <v>210</v>
       </c>
-      <c r="G73" s="148" t="s">
-        <v>0</v>
+      <c r="G73" s="148">
+        <v>308.78920400219272</v>
       </c>
       <c r="H73" s="149" t="s">
         <v>43</v>
@@ -4411,8 +5167,8 @@
       <c r="F79" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G79" s="128" t="s">
-        <v>0</v>
+      <c r="G79" s="128">
+        <v>17.777777777777779</v>
       </c>
       <c r="H79" s="41" t="s">
         <v>22</v>
@@ -4430,7 +5186,7 @@
       <c r="F80" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="G80" s="129" t="s">
+      <c r="G80" s="129">
         <v>0</v>
       </c>
       <c r="H80" s="42" t="s">
@@ -4449,8 +5205,8 @@
       <c r="F81" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="G81" s="129" t="s">
-        <v>0</v>
+      <c r="G81" s="129">
+        <v>1.4362288558241523</v>
       </c>
       <c r="H81" s="42" t="s">
         <v>214</v>
@@ -4465,8 +5221,8 @@
       <c r="F82" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="G82" s="129" t="s">
-        <v>0</v>
+      <c r="G82" s="129">
+        <v>81000000</v>
       </c>
       <c r="H82" s="42" t="s">
         <v>43</v>
@@ -4481,8 +5237,8 @@
       <c r="F83" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="G83" s="129" t="s">
-        <v>0</v>
+      <c r="G83" s="129">
+        <v>1659192200</v>
       </c>
       <c r="H83" s="42" t="s">
         <v>44</v>
@@ -4500,8 +5256,8 @@
       <c r="F84" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="G84" s="129" t="s">
-        <v>0</v>
+      <c r="G84" s="129">
+        <v>12200938200</v>
       </c>
       <c r="H84" s="42" t="s">
         <v>44</v>
@@ -4519,7 +5275,7 @@
       <c r="F85" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="G85" s="129" t="s">
+      <c r="G85" s="129">
         <v>0</v>
       </c>
       <c r="H85" s="42" t="s">
@@ -4538,8 +5294,8 @@
       <c r="F86" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="G86" s="129" t="s">
-        <v>0</v>
+      <c r="G86" s="129">
+        <v>876008902.36434197</v>
       </c>
       <c r="H86" s="42" t="s">
         <v>44</v>
@@ -4554,8 +5310,8 @@
       <c r="F87" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="G87" s="129" t="s">
-        <v>0</v>
+      <c r="G87" s="129">
+        <v>13.81827775093325</v>
       </c>
       <c r="H87" s="42" t="s">
         <v>22</v>
@@ -4573,7 +5329,7 @@
       <c r="F88" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="G88" s="130" t="s">
+      <c r="G88" s="130">
         <v>0</v>
       </c>
       <c r="H88" s="43" t="s">
@@ -5640,8 +6396,8 @@
       <c r="F163" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="G163" s="76" t="s">
-        <v>0</v>
+      <c r="G163" s="76">
+        <v>523.81818181818187</v>
       </c>
       <c r="H163" s="31" t="s">
         <v>43</v>
@@ -5656,8 +6412,8 @@
       <c r="F164" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="G164" s="76" t="s">
-        <v>0</v>
+      <c r="G164" s="76">
+        <v>9828.8676914583339</v>
       </c>
       <c r="H164" s="31" t="s">
         <v>43</v>
@@ -5672,8 +6428,8 @@
       <c r="F165" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="G165" s="76" t="s">
-        <v>0</v>
+      <c r="G165" s="76">
+        <v>-41678.394882175926</v>
       </c>
       <c r="H165" s="31" t="s">
         <v>73</v>
@@ -5688,8 +6444,8 @@
       <c r="F166" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="G166" s="76" t="s">
-        <v>0</v>
+      <c r="G166" s="76">
+        <v>-986341.27683177101</v>
       </c>
       <c r="H166" s="31" t="s">
         <v>73</v>
@@ -5704,8 +6460,8 @@
       <c r="F167" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="G167" s="77" t="s">
-        <v>0</v>
+      <c r="G167" s="77">
+        <v>57010.833333333336</v>
       </c>
       <c r="H167" s="21" t="s">
         <v>73</v>
@@ -7324,17 +8080,17 @@
       <c r="F288" s="88" t="s">
         <v>74</v>
       </c>
-      <c r="G288" s="132" t="s">
-        <v>0</v>
-      </c>
-      <c r="H288" s="133" t="s">
-        <v>0</v>
-      </c>
-      <c r="I288" s="134" t="s">
-        <v>0</v>
-      </c>
-      <c r="J288" s="134" t="s">
-        <v>0</v>
+      <c r="G288" s="132">
+        <v>0.8306950738640132</v>
+      </c>
+      <c r="H288" s="133">
+        <v>28.664393415913256</v>
+      </c>
+      <c r="I288" s="134">
+        <v>-1.9729008004270312</v>
+      </c>
+      <c r="J288" s="134">
+        <v>-28.404801205330752</v>
       </c>
       <c r="K288" s="56" t="s">
         <v>47</v>
@@ -7349,17 +8105,17 @@
       <c r="F289" s="96" t="s">
         <v>177</v>
       </c>
-      <c r="G289" s="135" t="s">
-        <v>0</v>
-      </c>
-      <c r="H289" s="129" t="s">
-        <v>0</v>
-      </c>
-      <c r="I289" s="136" t="s">
-        <v>0</v>
-      </c>
-      <c r="J289" s="136" t="s">
-        <v>0</v>
+      <c r="G289" s="135">
+        <v>28.666666666666668</v>
+      </c>
+      <c r="H289" s="129">
+        <v>28.666666666666668</v>
+      </c>
+      <c r="I289" s="136">
+        <v>28.666666666666668</v>
+      </c>
+      <c r="J289" s="136">
+        <v>28.666666666666668</v>
       </c>
       <c r="K289" s="42" t="s">
         <v>47</v>
@@ -7374,17 +8130,17 @@
       <c r="F290" s="96" t="s">
         <v>179</v>
       </c>
-      <c r="G290" s="135" t="s">
-        <v>0</v>
-      </c>
-      <c r="H290" s="129" t="s">
-        <v>0</v>
-      </c>
-      <c r="I290" s="136" t="s">
-        <v>0</v>
-      </c>
-      <c r="J290" s="136" t="s">
-        <v>0</v>
+      <c r="G290" s="135">
+        <v>-33.636363636363633</v>
+      </c>
+      <c r="H290" s="129">
+        <v>-33.636363636363633</v>
+      </c>
+      <c r="I290" s="136">
+        <v>-33.636363636363633</v>
+      </c>
+      <c r="J290" s="136">
+        <v>-33.636363636363633</v>
       </c>
       <c r="K290" s="42" t="s">
         <v>47</v>
@@ -7399,17 +8155,17 @@
       <c r="F291" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="G291" s="137" t="s">
-        <v>0</v>
-      </c>
-      <c r="H291" s="138" t="s">
-        <v>0</v>
-      </c>
-      <c r="I291" s="139" t="s">
-        <v>0</v>
-      </c>
-      <c r="J291" s="139" t="s">
-        <v>0</v>
+      <c r="G291" s="137">
+        <v>33.509253236957889</v>
+      </c>
+      <c r="H291" s="138">
+        <v>7.9305733787116139E-5</v>
+      </c>
+      <c r="I291" s="139">
+        <v>13.530211889245427</v>
+      </c>
+      <c r="J291" s="139">
+        <v>9.2190562941441012E-3</v>
       </c>
       <c r="K291" s="98">
         <v>1</v>
@@ -7791,17 +8547,17 @@
       <c r="F320" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="G320" s="132" t="s">
-        <v>0</v>
-      </c>
-      <c r="H320" s="133" t="s">
-        <v>0</v>
-      </c>
-      <c r="I320" s="134" t="s">
-        <v>0</v>
-      </c>
-      <c r="J320" s="134" t="s">
-        <v>0</v>
+      <c r="G320" s="132">
+        <v>-16.706354128448329</v>
+      </c>
+      <c r="H320" s="133">
+        <v>6.1367791219735608</v>
+      </c>
+      <c r="I320" s="134">
+        <v>5.8950844007510259</v>
+      </c>
+      <c r="J320" s="134">
+        <v>-16.757237227653071</v>
       </c>
       <c r="K320" s="56" t="s">
         <v>47</v>
@@ -7816,17 +8572,17 @@
       <c r="F321" s="96" t="s">
         <v>185</v>
       </c>
-      <c r="G321" s="135" t="s">
-        <v>0</v>
-      </c>
-      <c r="H321" s="129" t="s">
-        <v>0</v>
-      </c>
-      <c r="I321" s="136" t="s">
-        <v>0</v>
-      </c>
-      <c r="J321" s="136" t="s">
-        <v>0</v>
+      <c r="G321" s="135">
+        <v>18.666666666666668</v>
+      </c>
+      <c r="H321" s="129">
+        <v>18.666666666666668</v>
+      </c>
+      <c r="I321" s="136">
+        <v>18.666666666666668</v>
+      </c>
+      <c r="J321" s="136">
+        <v>18.666666666666668</v>
       </c>
       <c r="K321" s="42" t="s">
         <v>47</v>
@@ -7841,17 +8597,17 @@
       <c r="F322" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="G322" s="137" t="s">
-        <v>0</v>
-      </c>
-      <c r="H322" s="138" t="s">
-        <v>0</v>
-      </c>
-      <c r="I322" s="139" t="s">
-        <v>0</v>
-      </c>
-      <c r="J322" s="139" t="s">
-        <v>0</v>
+      <c r="G322" s="137">
+        <v>0.11733933826293264</v>
+      </c>
+      <c r="H322" s="138">
+        <v>2.0417693541923585</v>
+      </c>
+      <c r="I322" s="139">
+        <v>2.1664799683425326</v>
+      </c>
+      <c r="J322" s="139">
+        <v>0.113946554140955</v>
       </c>
       <c r="K322" s="98">
         <v>1</v>
@@ -8245,8 +9001,8 @@
       <c r="F351" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="G351" s="140" t="s">
-        <v>0</v>
+      <c r="G351" s="140">
+        <v>5.4399363408157507E-2</v>
       </c>
       <c r="H351" s="20" t="s">
         <v>22</v>
@@ -8261,8 +9017,8 @@
       <c r="F352" s="36" t="s">
         <v>191</v>
       </c>
-      <c r="G352" s="99" t="s">
-        <v>0</v>
+      <c r="G352" s="99">
+        <v>6.635846784449698</v>
       </c>
       <c r="H352" s="31" t="s">
         <v>22</v>
@@ -8277,8 +9033,8 @@
       <c r="F353" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="G353" s="99" t="s">
-        <v>0</v>
+      <c r="G353" s="99">
+        <v>-2.4843414380533016E-2</v>
       </c>
       <c r="H353" s="31" t="s">
         <v>41</v>
@@ -8293,8 +9049,8 @@
       <c r="F354" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="G354" s="99" t="s">
-        <v>0</v>
+      <c r="G354" s="99">
+        <v>3.3835496985986513E-4</v>
       </c>
       <c r="H354" s="31" t="s">
         <v>126</v>
@@ -8309,8 +9065,8 @@
       <c r="F355" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="G355" s="100" t="s">
-        <v>0</v>
+      <c r="G355" s="100">
+        <v>4.072500599986411E-2</v>
       </c>
       <c r="H355" s="21" t="s">
         <v>126</v>

--- a/WI 24/SE 160A/MATLAB PROJECT 2/final/Wing_Analysis_Output.xlsx
+++ b/WI 24/SE 160A/MATLAB PROJECT 2/final/Wing_Analysis_Output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levih\OneDrive\Documents\GitHub\UCSD\WI 24\SE 160A\MATLAB PROJECT 2\final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D43063BB-55A5-4871-BA85-7245C6816496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E29F267-0D7B-40CB-9E67-2801B5021C0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3450" yWindow="3420" windowWidth="19140" windowHeight="10020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2803,7 +2803,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24615EA8-5D94-4AD7-7D22-CD9F83DC89E5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDE238C1-EA0A-92C4-E9BF-B0BC331B78B5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2853,7 +2853,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DF0E1B8-5CFF-DFA8-C16F-E2290719E893}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{647024DB-5C42-22AA-C092-B844B9CE882D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2903,7 +2903,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8786E65-A8CB-84F9-E9EA-1765C30D3AFA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{829317EC-0BE7-6902-BE9B-ACCFDB040144}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2953,7 +2953,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB6230A5-9301-AA17-61EE-03B9D0BF604B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{513EB88E-A319-52DA-976E-D9393DBAD9FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3003,7 +3003,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{114B0AEE-6D30-5A00-33C9-B6AB9E141A9B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{545E7B4A-1258-FB35-79C9-0A36A2360FED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3053,7 +3053,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7853190-EB92-4543-D5AC-B6CA666D34B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64FF81D3-086D-5C11-EDCC-259EEF334F34}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3076,506 +3076,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="497840" y="37741225"/>
-          <a:ext cx="10368280" cy="4010025"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>69215</xdr:colOff>
-      <xdr:row>216</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>74295</xdr:colOff>
-      <xdr:row>237</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61B3E80E-2385-D72C-865E-42B51488B336}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="497840" y="42141775"/>
-          <a:ext cx="10368280" cy="4010025"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>69215</xdr:colOff>
-      <xdr:row>239</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>74295</xdr:colOff>
-      <xdr:row>260</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4DA9FFB-4C7A-FCCC-7884-443F98BE7E34}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="497840" y="46542325"/>
-          <a:ext cx="10368280" cy="4010025"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>69215</xdr:colOff>
-      <xdr:row>262</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>74295</xdr:colOff>
-      <xdr:row>283</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED802D1C-067C-845B-7002-3DB5DA1A237D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="497840" y="50942875"/>
-          <a:ext cx="10368280" cy="4010025"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>69215</xdr:colOff>
-      <xdr:row>294</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>74295</xdr:colOff>
-      <xdr:row>315</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBB30C1A-9777-707A-4DA1-C064888D8602}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="497840" y="57181750"/>
-          <a:ext cx="10368280" cy="4010025"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>69215</xdr:colOff>
-      <xdr:row>325</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>74295</xdr:colOff>
-      <xdr:row>346</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{005C1E8D-3C00-1B9C-623E-43DC8942FE11}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="497840" y="63163450"/>
-          <a:ext cx="10368280" cy="4010025"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>69215</xdr:colOff>
-      <xdr:row>358</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>74295</xdr:colOff>
-      <xdr:row>379</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{782FA5F7-06BF-8C64-9A65-8EC4AF960ACE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="497840" y="69688075"/>
-          <a:ext cx="10368280" cy="4010025"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>69215</xdr:colOff>
-      <xdr:row>381</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>74295</xdr:colOff>
-      <xdr:row>402</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA78B9D1-A716-25A7-78F4-EC0D2DF30631}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="497840" y="74088625"/>
-          <a:ext cx="10368280" cy="4010025"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>69215</xdr:colOff>
-      <xdr:row>404</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>74295</xdr:colOff>
-      <xdr:row>425</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2BB221C-8892-4AEF-0344-EDC369DF9BCB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="497840" y="78489175"/>
-          <a:ext cx="10368280" cy="4010025"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>69215</xdr:colOff>
-      <xdr:row>427</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>74295</xdr:colOff>
-      <xdr:row>448</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Picture 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC077CD4-33DC-0DCD-F695-A4D7B268C453}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="497840" y="82889725"/>
-          <a:ext cx="10368280" cy="4010025"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>69215</xdr:colOff>
-      <xdr:row>450</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>74295</xdr:colOff>
-      <xdr:row>471</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Picture 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{103028F3-22A2-1482-DBB2-97F7AAD60401}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="497840" y="87290275"/>
           <a:ext cx="10368280" cy="4010025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4235,7 +3735,7 @@
         <v>159</v>
       </c>
       <c r="G30" s="113">
-        <v>4.4999999999999998E-2</v>
+        <v>0.04</v>
       </c>
       <c r="H30" s="106" t="s">
         <v>22</v>
@@ -4384,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="H38" s="118">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="I38" s="119">
         <v>60</v>
@@ -4409,16 +3909,16 @@
         <v>149</v>
       </c>
       <c r="G39" s="121">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="H39" s="121">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="I39" s="121">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="J39" s="121">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K39" s="80" t="s">
         <v>150</v>
@@ -5114,7 +4614,7 @@
         <v>210</v>
       </c>
       <c r="G73" s="148">
-        <v>308.78920400219272</v>
+        <v>333.17429244639351</v>
       </c>
       <c r="H73" s="149" t="s">
         <v>43</v>
@@ -5168,7 +4668,7 @@
         <v>163</v>
       </c>
       <c r="G79" s="128">
-        <v>17.777777777777779</v>
+        <v>27.397959183673468</v>
       </c>
       <c r="H79" s="41" t="s">
         <v>22</v>
@@ -5187,7 +4687,7 @@
         <v>165</v>
       </c>
       <c r="G80" s="129">
-        <v>0</v>
+        <v>-0.3428571428571428</v>
       </c>
       <c r="H80" s="42" t="s">
         <v>22</v>
@@ -5206,7 +4706,7 @@
         <v>208</v>
       </c>
       <c r="G81" s="129">
-        <v>1.4362288558241523</v>
+        <v>1.5496478718436908</v>
       </c>
       <c r="H81" s="42" t="s">
         <v>214</v>
@@ -5222,7 +4722,7 @@
         <v>57</v>
       </c>
       <c r="G82" s="129">
-        <v>81000000</v>
+        <v>98000000</v>
       </c>
       <c r="H82" s="42" t="s">
         <v>43</v>
@@ -5238,7 +4738,7 @@
         <v>58</v>
       </c>
       <c r="G83" s="129">
-        <v>1659192200</v>
+        <v>1762872200</v>
       </c>
       <c r="H83" s="42" t="s">
         <v>44</v>
@@ -5257,7 +4757,7 @@
         <v>59</v>
       </c>
       <c r="G84" s="129">
-        <v>12200938200</v>
+        <v>26112417791.836742</v>
       </c>
       <c r="H84" s="42" t="s">
         <v>44</v>
@@ -5276,7 +4776,7 @@
         <v>60</v>
       </c>
       <c r="G85" s="129">
-        <v>0</v>
+        <v>-2607428571.4285712</v>
       </c>
       <c r="H85" s="42" t="s">
         <v>44</v>
@@ -5295,7 +4795,7 @@
         <v>61</v>
       </c>
       <c r="G86" s="129">
-        <v>876008902.36434197</v>
+        <v>778674579.87941515</v>
       </c>
       <c r="H86" s="42" t="s">
         <v>44</v>
@@ -5311,7 +4811,7 @@
         <v>167</v>
       </c>
       <c r="G87" s="129">
-        <v>13.81827775093325</v>
+        <v>16.75949771151879</v>
       </c>
       <c r="H87" s="42" t="s">
         <v>22</v>
@@ -5330,7 +4830,7 @@
         <v>169</v>
       </c>
       <c r="G88" s="130">
-        <v>0</v>
+        <v>-0.18879994600399064</v>
       </c>
       <c r="H88" s="43" t="s">
         <v>22</v>
@@ -6413,7 +5913,7 @@
         <v>69</v>
       </c>
       <c r="G164" s="76">
-        <v>9828.8676914583339</v>
+        <v>9736.2043553703716</v>
       </c>
       <c r="H164" s="31" t="s">
         <v>43</v>
@@ -6429,7 +5929,7 @@
         <v>70</v>
       </c>
       <c r="G165" s="76">
-        <v>-41678.394882175926</v>
+        <v>-136654.59367642493</v>
       </c>
       <c r="H165" s="31" t="s">
         <v>73</v>
@@ -6445,7 +5945,7 @@
         <v>71</v>
       </c>
       <c r="G166" s="76">
-        <v>-986341.27683177101</v>
+        <v>-976379.96820231504</v>
       </c>
       <c r="H166" s="31" t="s">
         <v>73</v>
@@ -8081,16 +7581,16 @@
         <v>74</v>
       </c>
       <c r="G288" s="132">
-        <v>0.8306950738640132</v>
+        <v>16.238928635438633</v>
       </c>
       <c r="H288" s="133">
-        <v>28.664393415913256</v>
+        <v>27.377762713393061</v>
       </c>
       <c r="I288" s="134">
-        <v>-1.9729008004270312</v>
+        <v>-24.231055481377542</v>
       </c>
       <c r="J288" s="134">
-        <v>-28.404801205330752</v>
+        <v>-25.252393530127911</v>
       </c>
       <c r="K288" s="56" t="s">
         <v>47</v>
@@ -8156,16 +7656,16 @@
         <v>14</v>
       </c>
       <c r="G291" s="137">
-        <v>33.509253236957889</v>
+        <v>0.76530529262297886</v>
       </c>
       <c r="H291" s="138">
-        <v>7.9305733787116139E-5</v>
+        <v>4.7078498223782184E-2</v>
       </c>
       <c r="I291" s="139">
-        <v>13.530211889245427</v>
+        <v>0.18305480703050914</v>
       </c>
       <c r="J291" s="139">
-        <v>9.2190562941441012E-3</v>
+        <v>0.13520592146900001</v>
       </c>
       <c r="K291" s="98">
         <v>1</v>
@@ -8548,16 +8048,16 @@
         <v>75</v>
       </c>
       <c r="G320" s="132">
-        <v>-16.706354128448329</v>
+        <v>-14.910471894644258</v>
       </c>
       <c r="H320" s="133">
-        <v>6.1367791219735608</v>
+        <v>13.746521209684497</v>
       </c>
       <c r="I320" s="134">
-        <v>5.8950844007510259</v>
+        <v>4.7104820475520697</v>
       </c>
       <c r="J320" s="134">
-        <v>-16.757237227653071</v>
+        <v>-17.331329242802177</v>
       </c>
       <c r="K320" s="56" t="s">
         <v>47</v>
@@ -8598,16 +8098,16 @@
         <v>14</v>
       </c>
       <c r="G322" s="137">
-        <v>0.11733933826293264</v>
+        <v>0.25191655895019727</v>
       </c>
       <c r="H322" s="138">
-        <v>2.0417693541923585</v>
+        <v>0.35791931514395814</v>
       </c>
       <c r="I322" s="139">
-        <v>2.1664799683425326</v>
+        <v>2.9627932933885841</v>
       </c>
       <c r="J322" s="139">
-        <v>0.113946554140955</v>
+        <v>7.7047605821640275E-2</v>
       </c>
       <c r="K322" s="98">
         <v>1</v>
@@ -9002,7 +8502,7 @@
         <v>190</v>
       </c>
       <c r="G351" s="140">
-        <v>5.4399363408157507E-2</v>
+        <v>0.75388545715227784</v>
       </c>
       <c r="H351" s="20" t="s">
         <v>22</v>
@@ -9018,7 +8518,7 @@
         <v>191</v>
       </c>
       <c r="G352" s="99">
-        <v>6.635846784449698</v>
+        <v>7.2953288008445609</v>
       </c>
       <c r="H352" s="31" t="s">
         <v>22</v>
@@ -9034,7 +8534,7 @@
         <v>189</v>
       </c>
       <c r="G353" s="99">
-        <v>-2.4843414380533016E-2</v>
+        <v>-0.25190804292169344</v>
       </c>
       <c r="H353" s="31" t="s">
         <v>41</v>
@@ -9050,7 +8550,7 @@
         <v>125</v>
       </c>
       <c r="G354" s="99">
-        <v>3.3835496985986513E-4</v>
+        <v>4.6286612971106504E-3</v>
       </c>
       <c r="H354" s="31" t="s">
         <v>126</v>
@@ -9066,7 +8566,7 @@
         <v>128</v>
       </c>
       <c r="G355" s="100">
-        <v>4.072500599986411E-2</v>
+        <v>4.4771040253722687E-2</v>
       </c>
       <c r="H355" s="21" t="s">
         <v>126</v>

--- a/WI 24/SE 160A/MATLAB PROJECT 2/final/Wing_Analysis_Output.xlsx
+++ b/WI 24/SE 160A/MATLAB PROJECT 2/final/Wing_Analysis_Output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levih\OneDrive\Documents\GitHub\UCSD\WI 24\SE 160A\MATLAB PROJECT 2\final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E29F267-0D7B-40CB-9E67-2801B5021C0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D94828-7DFD-4221-ADB7-41C7CA6C1B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3450" yWindow="3420" windowWidth="19140" windowHeight="10020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1095" yWindow="2580" windowWidth="19140" windowHeight="17145" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Output" sheetId="2" r:id="rId1"/>
@@ -2803,7 +2803,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDE238C1-EA0A-92C4-E9BF-B0BC331B78B5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A945C67B-0D5F-2239-9477-227BD5DD25E7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2853,7 +2853,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{647024DB-5C42-22AA-C092-B844B9CE882D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{249AD0CD-8D86-5913-B333-8721D9B88316}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2903,7 +2903,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{829317EC-0BE7-6902-BE9B-ACCFDB040144}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE4FD0CE-6100-0951-27AC-27791975521C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2953,7 +2953,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{513EB88E-A319-52DA-976E-D9393DBAD9FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2DC7898-3D04-3B9D-345D-B7B0D7A73BBA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3003,7 +3003,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{545E7B4A-1258-FB35-79C9-0A36A2360FED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26842410-EE36-9945-B24A-D5BB63B2E148}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3053,7 +3053,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64FF81D3-086D-5C11-EDCC-259EEF334F34}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5334299D-AA8E-7BE9-E139-713229FCF903}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3076,6 +3076,506 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="497840" y="37741225"/>
+          <a:ext cx="10368280" cy="4010025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>69215</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>74295</xdr:colOff>
+      <xdr:row>237</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B41C88B1-4443-4B42-33A2-901C5777ECAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="497840" y="42141775"/>
+          <a:ext cx="10368280" cy="4010025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>69215</xdr:colOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>74295</xdr:colOff>
+      <xdr:row>260</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC22DC50-657A-0F0D-0C80-BC4752205B50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="497840" y="46542325"/>
+          <a:ext cx="10368280" cy="4010025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>69215</xdr:colOff>
+      <xdr:row>262</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>74295</xdr:colOff>
+      <xdr:row>283</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEFC7EBD-1616-4FFD-D518-C149CECCAF9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="497840" y="50942875"/>
+          <a:ext cx="10368280" cy="4010025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>69215</xdr:colOff>
+      <xdr:row>294</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>74295</xdr:colOff>
+      <xdr:row>315</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B75B96EE-3C2E-F6B9-BC1D-6E62AB8B5803}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="497840" y="57181750"/>
+          <a:ext cx="10368280" cy="4010025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>69215</xdr:colOff>
+      <xdr:row>325</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>74295</xdr:colOff>
+      <xdr:row>346</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{485681ED-FC56-A9E1-0B31-3C71333305E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="497840" y="63163450"/>
+          <a:ext cx="10368280" cy="4010025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>69215</xdr:colOff>
+      <xdr:row>358</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>74295</xdr:colOff>
+      <xdr:row>379</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B463D7A9-669C-394C-D3A0-870F9E8A22ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="497840" y="69688075"/>
+          <a:ext cx="10368280" cy="4010025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>69215</xdr:colOff>
+      <xdr:row>381</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>74295</xdr:colOff>
+      <xdr:row>402</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC40DAD1-15A7-A56B-10E8-4644D206F431}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="497840" y="74088625"/>
+          <a:ext cx="10368280" cy="4010025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>69215</xdr:colOff>
+      <xdr:row>404</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>74295</xdr:colOff>
+      <xdr:row>425</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E1FD5D0-8979-F11B-2932-9ACBABF3C576}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="497840" y="78489175"/>
+          <a:ext cx="10368280" cy="4010025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>69215</xdr:colOff>
+      <xdr:row>427</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>74295</xdr:colOff>
+      <xdr:row>448</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAFC09A1-ABB8-B434-63DA-4B49F8818284}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="497840" y="82889725"/>
+          <a:ext cx="10368280" cy="4010025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>69215</xdr:colOff>
+      <xdr:row>450</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>74295</xdr:colOff>
+      <xdr:row>471</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2BA0FD2-E773-D54D-98A6-D53091E4D07F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="497840" y="87290275"/>
           <a:ext cx="10368280" cy="4010025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3390,7 +3890,7 @@
   </sheetPr>
   <dimension ref="A1:P477"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A338" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A326" workbookViewId="0">
       <selection activeCell="G355" sqref="G355"/>
     </sheetView>
   </sheetViews>
